--- a/data/Arduino_trainingset_3VarsDesign.xlsx
+++ b/data/Arduino_trainingset_3VarsDesign.xlsx
@@ -1,42 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Leerstof\IMM_DDDS\FaultDetection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8652"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$17</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
   <si>
     <t>F1</t>
   </si>
   <si>
+    <t>F2</t>
+  </si>
+  <si>
     <t>F3</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2</t>
+    <t>power_off</t>
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>power_on</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
   <si>
     <t>S</t>
@@ -113,27 +130,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,44 +170,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -226,9 +240,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -267,287 +281,600 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>2.1</v>
+      </c>
+      <c r="D5">
+        <v>1.8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>2.4</v>
+      </c>
+      <c r="D10">
+        <v>2.4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>3.4</v>
       </c>
-      <c r="D3">
+      <c r="D12">
         <v>1.4</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
+      <c r="C13">
+        <v>1.8</v>
+      </c>
+      <c r="D13">
+        <v>1.8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>2.1</v>
+      </c>
+      <c r="D15">
+        <v>1.8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:H17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Arduino_trainingset_3VarsDesign.xlsx
+++ b/data/Arduino_trainingset_3VarsDesign.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="10">
   <si>
     <t>F1</t>
   </si>
@@ -41,13 +41,7 @@
     <t>F4</t>
   </si>
   <si>
-    <t>power_off</t>
-  </si>
-  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>power_on</t>
   </si>
   <si>
     <t>F</t>
@@ -425,7 +419,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,13 +430,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -461,8 +455,8 @@
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="B2">
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1.8</v>
@@ -471,24 +465,24 @@
         <v>1.8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -497,24 +491,24 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -523,24 +517,24 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="B5">
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2.1</v>
@@ -549,24 +543,24 @@
         <v>1.8</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -575,24 +569,24 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -601,24 +595,24 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
+      <c r="B8">
+        <v>1</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -627,24 +621,24 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
+      <c r="B9">
+        <v>1</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -653,24 +647,24 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
+      <c r="B10">
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2.4</v>
@@ -679,24 +673,24 @@
         <v>2.4</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>6</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -705,24 +699,24 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>6</v>
+      <c r="B12">
+        <v>1</v>
       </c>
       <c r="C12">
         <v>3.4</v>
@@ -731,24 +725,24 @@
         <v>1.4</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13">
         <v>1.8</v>
@@ -757,50 +751,50 @@
         <v>1.8</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
         <v>4</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
+      <c r="B15">
+        <v>0</v>
       </c>
       <c r="C15">
         <v>2.1</v>
@@ -809,24 +803,24 @@
         <v>1.8</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0.7</v>
@@ -835,24 +829,24 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B17">
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -861,16 +855,16 @@
         <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
